--- a/receptores.xlsx
+++ b/receptores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Desktop\Proyectos\Clientes\Alex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB36981-C09B-49D4-9BD3-8229ACF0CE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE0B598-58FD-4908-BAA8-7B826C4A264D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1215" windowWidth="23820" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="13">
   <si>
     <t>Felipe</t>
   </si>
@@ -39,7 +39,31 @@
     <t>dog.png</t>
   </si>
   <si>
-    <t>0:0:0:1</t>
+    <t>preferencial.pdf</t>
+  </si>
+  <si>
+    <t>billie.mp4</t>
+  </si>
+  <si>
+    <t>Nombre destinatario</t>
+  </si>
+  <si>
+    <t>Numero telefónico</t>
+  </si>
+  <si>
+    <t>Fecha de envío</t>
+  </si>
+  <si>
+    <t>Mensaje</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>Imagen</t>
+  </si>
+  <si>
+    <t>Video</t>
   </si>
 </sst>
 </file>
@@ -83,10 +107,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,33 +392,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="10" max="10" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -403,12 +441,18 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3">
+        <v>44461.833333333336</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -417,11 +461,14 @@
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
+      <c r="C3" s="3">
+        <v>44463.833333333336</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -431,12 +478,13 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C4" s="3">
+        <v>44461.875</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -445,11 +493,14 @@
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
+      <c r="C5" s="3">
+        <v>44459.833333333336</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -459,11 +510,11 @@
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
+      <c r="C6" s="3">
+        <v>44459.833333333336</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -473,11 +524,11 @@
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
+      <c r="C7" s="3">
+        <v>44550.833333333336</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -487,12 +538,16 @@
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
+      <c r="C8" s="3">
+        <v>44550.877326388887</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -501,13 +556,12 @@
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="2"/>
+      <c r="C9" s="3">
+        <v>44459.833333333336</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -516,13 +570,29 @@
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="2"/>
+      <c r="C10" s="3">
+        <v>44459.833333333336</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44459.833333333336</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
